--- a/uploads/templates/educations.xlsx
+++ b/uploads/templates/educations.xlsx
@@ -57,7 +57,7 @@
     <t>Johor, Malaysia</t>
   </si>
   <si>
-    <t>Dhaka,SriLanka</t>
+    <t>Dhaka, John</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
